--- a/SchedulingData/dynamic14/pso/scheduling2_4.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>230.28</v>
+        <v>256.22</v>
       </c>
       <c r="D2" t="n">
-        <v>266.44</v>
+        <v>291.28</v>
       </c>
       <c r="E2" t="n">
-        <v>11.536</v>
+        <v>9.192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243.44</v>
+        <v>246.44</v>
       </c>
       <c r="D3" t="n">
-        <v>294.3</v>
+        <v>298.64</v>
       </c>
       <c r="E3" t="n">
-        <v>16.18</v>
+        <v>9.456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>217.52</v>
+        <v>229.68</v>
       </c>
       <c r="D4" t="n">
-        <v>283.26</v>
+        <v>276.26</v>
       </c>
       <c r="E4" t="n">
-        <v>14.284</v>
+        <v>11.544</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>294.3</v>
+        <v>237.78</v>
       </c>
       <c r="D5" t="n">
-        <v>334.72</v>
+        <v>306.18</v>
       </c>
       <c r="E5" t="n">
-        <v>13.268</v>
+        <v>12.052</v>
       </c>
     </row>
     <row r="6">
@@ -542,36 +542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>266.44</v>
+        <v>259.04</v>
       </c>
       <c r="D6" t="n">
-        <v>316.94</v>
+        <v>335.92</v>
       </c>
       <c r="E6" t="n">
-        <v>7.616</v>
+        <v>13.008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>209.18</v>
+        <v>243.46</v>
       </c>
       <c r="D7" t="n">
-        <v>258.18</v>
+        <v>300.68</v>
       </c>
       <c r="E7" t="n">
-        <v>13.712</v>
+        <v>11.572</v>
       </c>
     </row>
     <row r="8">
@@ -580,378 +580,378 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>241.2</v>
+        <v>298.64</v>
       </c>
       <c r="D8" t="n">
-        <v>304.66</v>
+        <v>341.24</v>
       </c>
       <c r="E8" t="n">
-        <v>12.144</v>
+        <v>6.816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>316.94</v>
+        <v>276.26</v>
       </c>
       <c r="D9" t="n">
-        <v>401.82</v>
+        <v>335.16</v>
       </c>
       <c r="E9" t="n">
-        <v>3.248</v>
+        <v>7.284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>304.66</v>
+        <v>306.18</v>
       </c>
       <c r="D10" t="n">
-        <v>342.36</v>
+        <v>365.5</v>
       </c>
       <c r="E10" t="n">
-        <v>9.504</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>283.26</v>
+        <v>335.92</v>
       </c>
       <c r="D11" t="n">
-        <v>342.16</v>
+        <v>396.58</v>
       </c>
       <c r="E11" t="n">
-        <v>10.024</v>
+        <v>10.032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>342.36</v>
+        <v>300.68</v>
       </c>
       <c r="D12" t="n">
-        <v>405.32</v>
+        <v>391.34</v>
       </c>
       <c r="E12" t="n">
-        <v>5.808</v>
+        <v>7.596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>258.18</v>
+        <v>391.34</v>
       </c>
       <c r="D13" t="n">
-        <v>300.82</v>
+        <v>439.94</v>
       </c>
       <c r="E13" t="n">
-        <v>10.588</v>
+        <v>4.876</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>405.32</v>
+        <v>439.94</v>
       </c>
       <c r="D14" t="n">
-        <v>485.22</v>
+        <v>491.28</v>
       </c>
       <c r="E14" t="n">
-        <v>3.388</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>401.82</v>
+        <v>491.28</v>
       </c>
       <c r="D15" t="n">
-        <v>446.38</v>
+        <v>556.54</v>
       </c>
       <c r="E15" t="n">
-        <v>0.432</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>446.38</v>
+        <v>365.5</v>
       </c>
       <c r="D16" t="n">
-        <v>527.22</v>
+        <v>407.6</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>485.22</v>
+        <v>291.28</v>
       </c>
       <c r="D17" t="n">
-        <v>525.28</v>
+        <v>376.08</v>
       </c>
       <c r="E17" t="n">
-        <v>1.012</v>
+        <v>4.812</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>525.28</v>
+        <v>407.6</v>
       </c>
       <c r="D18" t="n">
-        <v>624.66</v>
+        <v>477.92</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>1.748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>527.22</v>
+        <v>477.92</v>
       </c>
       <c r="D19" t="n">
-        <v>603.58</v>
+        <v>566.02</v>
       </c>
       <c r="E19" t="n">
-        <v>26.524</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>300.82</v>
+        <v>341.24</v>
       </c>
       <c r="D20" t="n">
-        <v>366.12</v>
+        <v>395.34</v>
       </c>
       <c r="E20" t="n">
-        <v>6.168</v>
+        <v>3.536</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>366.12</v>
+        <v>335.16</v>
       </c>
       <c r="D21" t="n">
-        <v>424.24</v>
+        <v>371.24</v>
       </c>
       <c r="E21" t="n">
-        <v>2.956</v>
+        <v>4.316</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>334.72</v>
+        <v>395.34</v>
       </c>
       <c r="D22" t="n">
-        <v>390.68</v>
+        <v>457.2</v>
       </c>
       <c r="E22" t="n">
-        <v>9.811999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>390.68</v>
+        <v>457.2</v>
       </c>
       <c r="D23" t="n">
-        <v>447.68</v>
+        <v>527.3200000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>5.732</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>250.9</v>
+        <v>527.3200000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>295.28</v>
+        <v>569.3</v>
       </c>
       <c r="E24" t="n">
-        <v>14.052</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>624.66</v>
+        <v>566.02</v>
       </c>
       <c r="D25" t="n">
-        <v>663.76</v>
+        <v>610.22</v>
       </c>
       <c r="E25" t="n">
-        <v>27.28</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>424.24</v>
+        <v>396.58</v>
       </c>
       <c r="D26" t="n">
-        <v>462.58</v>
+        <v>452.52</v>
       </c>
       <c r="E26" t="n">
-        <v>0.252</v>
+        <v>6.548</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>462.58</v>
+        <v>371.24</v>
       </c>
       <c r="D27" t="n">
-        <v>563.38</v>
+        <v>433.94</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>1.156</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>295.28</v>
+        <v>433.94</v>
       </c>
       <c r="D28" t="n">
-        <v>344.34</v>
+        <v>547.9299999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>10.776</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -979,169 +979,169 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>663.76</v>
+        <v>569.3</v>
       </c>
       <c r="D29" t="n">
-        <v>733.42</v>
+        <v>634.4</v>
       </c>
       <c r="E29" t="n">
-        <v>24.904</v>
+        <v>24.112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>344.34</v>
+        <v>376.08</v>
       </c>
       <c r="D30" t="n">
-        <v>420.58</v>
+        <v>430.6</v>
       </c>
       <c r="E30" t="n">
-        <v>6.772</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>447.68</v>
+        <v>430.6</v>
       </c>
       <c r="D31" t="n">
-        <v>526.98</v>
+        <v>516.4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9320000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>526.98</v>
+        <v>634.4</v>
       </c>
       <c r="D32" t="n">
-        <v>631.42</v>
+        <v>692.64</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>21.408</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>563.38</v>
+        <v>547.9299999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>610.36</v>
+        <v>613.4299999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>27.492</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>342.16</v>
+        <v>516.4</v>
       </c>
       <c r="D34" t="n">
-        <v>393.04</v>
+        <v>586.7</v>
       </c>
       <c r="E34" t="n">
-        <v>7.076</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603.58</v>
+        <v>610.22</v>
       </c>
       <c r="D35" t="n">
-        <v>650.58</v>
+        <v>674.1</v>
       </c>
       <c r="E35" t="n">
-        <v>23.444</v>
+        <v>23.472</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>631.42</v>
+        <v>452.52</v>
       </c>
       <c r="D36" t="n">
-        <v>675.26</v>
+        <v>506.38</v>
       </c>
       <c r="E36" t="n">
-        <v>27.296</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>420.58</v>
+        <v>506.38</v>
       </c>
       <c r="D37" t="n">
-        <v>507.88</v>
+        <v>564.62</v>
       </c>
       <c r="E37" t="n">
-        <v>2.152</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>650.58</v>
+        <v>564.62</v>
       </c>
       <c r="D38" t="n">
-        <v>711.46</v>
+        <v>664.78</v>
       </c>
       <c r="E38" t="n">
-        <v>20.476</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -1169,36 +1169,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>393.04</v>
+        <v>556.54</v>
       </c>
       <c r="D39" t="n">
-        <v>477.46</v>
+        <v>628.24</v>
       </c>
       <c r="E39" t="n">
-        <v>2.764</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>477.46</v>
+        <v>586.7</v>
       </c>
       <c r="D40" t="n">
-        <v>573.4299999999999</v>
+        <v>626.76</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>25.224</v>
       </c>
     </row>
     <row r="41">
@@ -1207,74 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>573.4299999999999</v>
+        <v>628.24</v>
       </c>
       <c r="D41" t="n">
-        <v>655.75</v>
+        <v>671.48</v>
       </c>
       <c r="E41" t="n">
-        <v>25.408</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>3</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>507.88</v>
-      </c>
-      <c r="D42" t="n">
-        <v>585.58</v>
-      </c>
-      <c r="E42" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond62</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>585.58</v>
-      </c>
-      <c r="D43" t="n">
-        <v>655.5</v>
-      </c>
-      <c r="E43" t="n">
-        <v>25.688</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond33</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>675.26</v>
-      </c>
-      <c r="D44" t="n">
-        <v>738.2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>24.592</v>
+        <v>23.276</v>
       </c>
     </row>
   </sheetData>
